--- a/tournament/matches/RoyalChallengers_Bangladesh_vs_Chennai_SouthAfrica.xlsx
+++ b/tournament/matches/RoyalChallengers_Bangladesh_vs_Chennai_SouthAfrica.xlsx
@@ -527,14 +527,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Kagiso Rabada</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mustafizur Rahman</t>
+          <t xml:space="preserve"> Taskin Ahmed</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -601,19 +601,19 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anrich Nortje</t>
+          <t xml:space="preserve"> Kagiso Rabada</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -627,11 +627,11 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>LBW</t>
@@ -639,7 +639,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taskin Ahmed</t>
+          <t xml:space="preserve"> Mustafizur Rahman</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -663,7 +663,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Keshav Maharaj</t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -677,19 +677,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shamim Hossain</t>
+          <t xml:space="preserve"> Mustafizur Rahman</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -701,19 +701,19 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anrich Nortje</t>
+          <t xml:space="preserve"> Keshav Maharaj</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taskin Ahmed</t>
+          <t xml:space="preserve"> Mahedi Hasan</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -751,19 +751,19 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -777,19 +777,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taskin Ahmed</t>
+          <t xml:space="preserve"> Shamim Hossain</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -801,19 +801,19 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kagiso Rabada</t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -827,19 +827,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taskin Ahmed</t>
+          <t xml:space="preserve"> Mustafizur Rahman</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dwaine Pretorius</t>
+          <t xml:space="preserve"> Keshav Maharaj</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -877,19 +877,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shamim Hossain</t>
+          <t xml:space="preserve"> Mahedi Hasan</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>* NOT OUT</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Dwaine Pretorius</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -930,16 +930,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shamim Hossain</t>
+          <t xml:space="preserve"> Taskin Ahmed</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -951,19 +951,19 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -977,19 +977,19 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>51</v>
+      </c>
+      <c r="C11" t="n">
         <v>20</v>
       </c>
-      <c r="C11" t="n">
-        <v>7</v>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mustafizur Rahman</t>
+          <t xml:space="preserve"> Mahedi Hasan</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1004,16 +1004,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Dwaine Pretorius</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1051,14 +1051,14 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1114,32 +1114,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>83</v>
+        <v>272</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="J16" t="n">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>10.3</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1197,22 +1197,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Taskin Ahmed</t>
+          <t>Shamim Hossain</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>14.67</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1221,38 +1221,38 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mahedi Hasan</t>
+          <t>Shoriful Islam</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>13.25</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1261,38 +1261,38 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Shamim Hossain</t>
+          <t>Mustafizur Rahman</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>15.5</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1301,78 +1301,78 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Shoriful Islam</t>
+          <t>Taskin Ahmed</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>55</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Dwaine Pretorius</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>29</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Dwaine Pretorius</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="L24" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mustafizur Rahman</t>
+          <t>Mahedi Hasan</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D25" t="n">
         <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>13.57</v>
+        <v>14.5</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N25" t="n">
-        <v>21.54</v>
+        <v>13.04</v>
       </c>
     </row>
   </sheetData>
